--- a/banco_dasa.xlsx
+++ b/banco_dasa.xlsx
@@ -1,52 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Desktop\site_dasa_challenge\site_dasa\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{493149FA-6CBC-4CB7-8E99-9C62A4B1F231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6C1F9CED-1EA5-4363-B237-842B7418A228}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+  <si>
+    <t>Funcionario</t>
+  </si>
+  <si>
+    <t>Insumo</t>
+  </si>
   <si>
     <t>Consumo</t>
   </si>
   <si>
-    <t>Insumo</t>
-  </si>
-  <si>
-    <t>Funcionario</t>
-  </si>
-  <si>
     <t>Setor</t>
   </si>
   <si>
@@ -56,24 +34,38 @@
     <t>jorginho</t>
   </si>
   <si>
+    <t>admin</t>
+  </si>
+  <si>
     <t>seringa</t>
   </si>
   <si>
     <t>enfermagem</t>
   </si>
   <si>
-    <t>2025-01-01</t>
+    <t>15/09/2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -86,12 +78,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -100,27 +107,21 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -130,44 +131,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -194,32 +195,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -246,24 +229,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -275,217 +240,229 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr"/>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00224E38-274E-49EB-A42B-BDAD3BB6EE80}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/banco_dasa.xlsx
+++ b/banco_dasa.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
   <si>
     <t>Funcionario</t>
   </si>
@@ -28,32 +28,50 @@
     <t>Setor</t>
   </si>
   <si>
-    <t>Log</t>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>Data</t>
   </si>
   <si>
     <t>jorginho</t>
   </si>
   <si>
+    <t>seringa</t>
+  </si>
+  <si>
+    <t>enfermagem</t>
+  </si>
+  <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>15/09/2025</t>
+  </si>
+  <si>
     <t>admin</t>
   </si>
   <si>
-    <t>seringa</t>
-  </si>
-  <si>
-    <t>enfermagem</t>
-  </si>
-  <si>
-    <t>15/09/2025</t>
+    <t>None</t>
+  </si>
+  <si>
+    <t>algodão</t>
+  </si>
+  <si>
+    <t>gazes</t>
+  </si>
+  <si>
+    <t>luvas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,10 +82,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -88,35 +111,70 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="10">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -125,10 +183,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -166,69 +224,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -252,54 +312,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -309,7 +368,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -318,7 +377,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -327,7 +386,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -335,10 +394,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -367,7 +426,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -380,13 +439,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -404,62 +462,156 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <v>100</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2">
-        <v>45658</v>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/banco_dasa.xlsx
+++ b/banco_dasa.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
   <si>
     <t>Funcionario</t>
   </si>
@@ -37,41 +37,44 @@
     <t>jorginho</t>
   </si>
   <si>
+    <t>admin</t>
+  </si>
+  <si>
     <t>seringa</t>
   </si>
   <si>
+    <t>algodão</t>
+  </si>
+  <si>
+    <t>gazes</t>
+  </si>
+  <si>
+    <t>luvas</t>
+  </si>
+  <si>
     <t>enfermagem</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>00:00:00</t>
   </si>
   <si>
+    <t>10:02:40</t>
+  </si>
+  <si>
     <t>15/09/2025</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>algodão</t>
-  </si>
-  <si>
-    <t>gazes</t>
-  </si>
-  <si>
-    <t>luvas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,15 +85,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -111,70 +109,35 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -183,10 +146,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -224,71 +187,69 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -312,53 +273,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -368,7 +330,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -377,7 +339,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -386,7 +348,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -394,10 +356,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -426,7 +388,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -439,12 +401,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -462,156 +425,210 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
         <v>100</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="E11" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="6" t="s">
-        <v>10</v>
+      <c r="F11" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/banco_dasa.xlsx
+++ b/banco_dasa.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>Funcionario</t>
   </si>
@@ -37,10 +37,19 @@
     <t>jorginho</t>
   </si>
   <si>
+    <t>seringa</t>
+  </si>
+  <si>
+    <t>enfermagem</t>
+  </si>
+  <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
     <t>admin</t>
   </si>
   <si>
-    <t>seringa</t>
+    <t>None</t>
   </si>
   <si>
     <t>algodão</t>
@@ -50,31 +59,16 @@
   </si>
   <si>
     <t>luvas</t>
-  </si>
-  <si>
-    <t>enfermagem</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>00:00:00</t>
-  </si>
-  <si>
-    <t>10:02:40</t>
-  </si>
-  <si>
-    <t>15/09/2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,10 +79,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -109,35 +108,70 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="10">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -146,10 +180,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -187,69 +221,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -273,54 +309,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -330,7 +365,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -339,7 +374,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -348,7 +383,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -356,10 +391,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -388,7 +423,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -401,13 +436,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -425,210 +459,162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="39.005" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5">
+        <v>100</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6">
+        <v>45666</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="6">
+        <v>45697</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="6">
+        <v>45725</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6">
+        <v>45786</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="6">
+        <v>45817</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2">
-        <v>45915</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
+      <c r="C7" s="5">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2">
-        <v>45915</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2">
-        <v>45915</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>45915</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>45915</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>45915</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
+      <c r="F7" s="6">
+        <v>45939</v>
       </c>
     </row>
   </sheetData>

--- a/banco_dasa.xlsx
+++ b/banco_dasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>Funcionario</t>
   </si>
@@ -43,12 +43,15 @@
     <t>enfermagem</t>
   </si>
   <si>
-    <t>00:00:00</t>
+    <t>10:00:00</t>
   </si>
   <si>
     <t>admin</t>
   </si>
   <si>
+    <t>03:00:00</t>
+  </si>
+  <si>
     <t>None</t>
   </si>
   <si>
@@ -58,7 +61,16 @@
     <t>gazes</t>
   </si>
   <si>
+    <t>03:30:00</t>
+  </si>
+  <si>
+    <t>15/09/2025</t>
+  </si>
+  <si>
     <t>luvas</t>
+  </si>
+  <si>
+    <t>11:00:00</t>
   </si>
 </sst>
 </file>
@@ -514,7 +526,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="6">
-        <v>45666</v>
+        <v>45910</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
@@ -531,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F3" s="6">
-        <v>45697</v>
+        <v>45911</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
@@ -548,13 +560,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="F4" s="6">
-        <v>45725</v>
+        <v>45912</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
@@ -562,19 +574,19 @@
         <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="6">
-        <v>45786</v>
+        <v>45913</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
@@ -582,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="6">
-        <v>45817</v>
+        <v>15</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
@@ -602,19 +614,19 @@
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7" s="5">
         <v>0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="6">
-        <v>45939</v>
+        <v>18</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/banco_dasa.xlsx
+++ b/banco_dasa.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="19">
   <si>
     <t>Funcionario</t>
   </si>
@@ -37,38 +37,50 @@
     <t>jorginho</t>
   </si>
   <si>
+    <t>admin</t>
+  </si>
+  <si>
     <t>seringa</t>
   </si>
   <si>
+    <t>algodão</t>
+  </si>
+  <si>
+    <t>gazes</t>
+  </si>
+  <si>
+    <t>luvas</t>
+  </si>
+  <si>
     <t>enfermagem</t>
   </si>
   <si>
+    <t>Enfermagem</t>
+  </si>
+  <si>
     <t>00:00:00</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>algodão</t>
-  </si>
-  <si>
-    <t>gazes</t>
-  </si>
-  <si>
-    <t>luvas</t>
+    <t>11:00:43</t>
+  </si>
+  <si>
+    <t>11:02:09</t>
+  </si>
+  <si>
+    <t>11:02:23</t>
+  </si>
+  <si>
+    <t>15/09/2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,15 +91,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -108,70 +115,35 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -180,10 +152,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -221,71 +193,69 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -309,53 +279,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -365,7 +336,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -374,7 +345,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -383,7 +354,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -391,10 +362,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -423,7 +394,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -436,12 +407,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -459,162 +431,379 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="39.005" customWidth="1" bestFit="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
         <v>100</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45697</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45725</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6">
-        <v>45666</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45786</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="C6">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45939</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>0.05</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>0.011</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="C10">
+        <v>0.03</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="6">
-        <v>45697</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3" t="s">
+      <c r="C13">
+        <v>123</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="6">
-        <v>45725</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3" t="s">
+      <c r="C17">
+        <v>126</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="6">
-        <v>45786</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="6">
-        <v>45817</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="6">
-        <v>45939</v>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/banco_dasa.xlsx
+++ b/banco_dasa.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="28">
   <si>
     <t>Funcionario</t>
   </si>
@@ -37,50 +37,77 @@
     <t>jorginho</t>
   </si>
   <si>
+    <t>admin</t>
+  </si>
+  <si>
     <t>seringa</t>
   </si>
   <si>
+    <t>algodão</t>
+  </si>
+  <si>
+    <t>gazes</t>
+  </si>
+  <si>
+    <t>luvas</t>
+  </si>
+  <si>
     <t>enfermagem</t>
   </si>
   <si>
+    <t>Enfermagem</t>
+  </si>
+  <si>
+    <t>UTI</t>
+  </si>
+  <si>
     <t>10:00:00</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
     <t>03:00:00</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>algodão</t>
-  </si>
-  <si>
-    <t>gazes</t>
-  </si>
-  <si>
     <t>03:30:00</t>
   </si>
   <si>
+    <t>11:00:00</t>
+  </si>
+  <si>
+    <t>10:52:50</t>
+  </si>
+  <si>
+    <t>10:53:58</t>
+  </si>
+  <si>
+    <t>10:56:16</t>
+  </si>
+  <si>
+    <t>10:56:24</t>
+  </si>
+  <si>
+    <t>10:56:34</t>
+  </si>
+  <si>
+    <t>10:58:10</t>
+  </si>
+  <si>
+    <t>11:00:41</t>
+  </si>
+  <si>
+    <t>11:02:10</t>
+  </si>
+  <si>
     <t>15/09/2025</t>
-  </si>
-  <si>
-    <t>luvas</t>
-  </si>
-  <si>
-    <t>11:00:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,15 +118,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -120,70 +142,35 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -192,10 +179,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -233,71 +220,69 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -321,53 +306,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -377,7 +363,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -386,7 +372,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -395,7 +381,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -403,10 +389,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -435,7 +421,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -448,12 +434,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -471,162 +458,779 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="39.005" customWidth="1" bestFit="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
         <v>100</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45910</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45911</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6">
-        <v>45910</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45913</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6">
-        <v>45911</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3" t="s">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="6">
-        <v>45912</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3" t="s">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="6">
-        <v>45913</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3" t="s">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3" t="s">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>16</v>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/banco_dasa.xlsx
+++ b/banco_dasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="44">
   <si>
     <t>Funcionario</t>
   </si>
@@ -61,6 +61,9 @@
     <t>UTI</t>
   </si>
   <si>
+    <t>Consultórios</t>
+  </si>
+  <si>
     <t>10:00:00</t>
   </si>
   <si>
@@ -95,6 +98,51 @@
   </si>
   <si>
     <t>11:02:10</t>
+  </si>
+  <si>
+    <t>11:05:27</t>
+  </si>
+  <si>
+    <t>11:06:07</t>
+  </si>
+  <si>
+    <t>11:07:02</t>
+  </si>
+  <si>
+    <t>11:07:12</t>
+  </si>
+  <si>
+    <t>11:07:45</t>
+  </si>
+  <si>
+    <t>11:07:51</t>
+  </si>
+  <si>
+    <t>11:09:40</t>
+  </si>
+  <si>
+    <t>11:10:37</t>
+  </si>
+  <si>
+    <t>11:12:13</t>
+  </si>
+  <si>
+    <t>11:13:48</t>
+  </si>
+  <si>
+    <t>11:13:59</t>
+  </si>
+  <si>
+    <t>11:15:28</t>
+  </si>
+  <si>
+    <t>11:15:43</t>
+  </si>
+  <si>
+    <t>11:15:47</t>
+  </si>
+  <si>
+    <t>11:16:01</t>
   </si>
   <si>
     <t>15/09/2025</t>
@@ -459,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,7 +547,7 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2">
         <v>45910</v>
@@ -519,7 +567,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2">
         <v>45911</v>
@@ -536,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2">
         <v>45912</v>
@@ -553,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2">
         <v>45913</v>
@@ -570,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2">
         <v>45915</v>
@@ -587,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2">
         <v>45915</v>
@@ -607,7 +655,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2">
         <v>45915</v>
@@ -627,7 +675,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2">
         <v>45915</v>
@@ -647,7 +695,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2">
         <v>45915</v>
@@ -667,7 +715,7 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" s="2">
         <v>45915</v>
@@ -687,7 +735,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2">
         <v>45915</v>
@@ -707,7 +755,7 @@
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2">
         <v>45915</v>
@@ -727,7 +775,7 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" s="2">
         <v>45915</v>
@@ -747,7 +795,7 @@
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F15" s="2">
         <v>45915</v>
@@ -767,7 +815,7 @@
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F16" s="2">
         <v>45915</v>
@@ -787,7 +835,7 @@
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F17" s="2">
         <v>45915</v>
@@ -807,7 +855,7 @@
         <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F18" s="2">
         <v>45915</v>
@@ -827,7 +875,7 @@
         <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F19" s="2">
         <v>45915</v>
@@ -847,7 +895,7 @@
         <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F20" s="2">
         <v>45915</v>
@@ -867,7 +915,7 @@
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F21" s="2">
         <v>45915</v>
@@ -887,7 +935,7 @@
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F22" s="2">
         <v>45915</v>
@@ -907,7 +955,7 @@
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F23" s="2">
         <v>45915</v>
@@ -927,7 +975,7 @@
         <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F24" s="2">
         <v>45915</v>
@@ -947,7 +995,7 @@
         <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F25" s="2">
         <v>45915</v>
@@ -967,7 +1015,7 @@
         <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F26" s="2">
         <v>45915</v>
@@ -987,7 +1035,7 @@
         <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F27" s="2">
         <v>45915</v>
@@ -1007,7 +1055,7 @@
         <v>14</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F28" s="2">
         <v>45915</v>
@@ -1027,7 +1075,7 @@
         <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F29" s="2">
         <v>45915</v>
@@ -1047,7 +1095,7 @@
         <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F30" s="2">
         <v>45915</v>
@@ -1067,7 +1115,7 @@
         <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F31" s="2">
         <v>45915</v>
@@ -1087,7 +1135,7 @@
         <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F32" s="2">
         <v>45915</v>
@@ -1107,7 +1155,7 @@
         <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F33" s="2">
         <v>45915</v>
@@ -1127,7 +1175,7 @@
         <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F34" s="2">
         <v>45915</v>
@@ -1147,7 +1195,7 @@
         <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F35" s="2">
         <v>45915</v>
@@ -1167,10 +1215,10 @@
         <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F36" t="s">
         <v>27</v>
+      </c>
+      <c r="F36" s="2">
+        <v>45915</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1187,10 +1235,10 @@
         <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" t="s">
         <v>27</v>
+      </c>
+      <c r="F37" s="2">
+        <v>45915</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1207,10 +1255,10 @@
         <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" t="s">
         <v>27</v>
+      </c>
+      <c r="F38" s="2">
+        <v>45915</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1227,10 +1275,830 @@
         <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" t="s">
         <v>27</v>
+      </c>
+      <c r="F39" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>123</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>333</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>2323</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>233</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>111</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>222</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>111</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>3232</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50">
+        <v>3232</v>
+      </c>
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51">
+        <v>32323</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" t="s">
+        <v>33</v>
+      </c>
+      <c r="F52" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>111</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57">
+        <v>111</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s">
+        <v>35</v>
+      </c>
+      <c r="F58" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" t="s">
+        <v>35</v>
+      </c>
+      <c r="F59" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60">
+        <v>111</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" t="s">
+        <v>36</v>
+      </c>
+      <c r="F60" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61">
+        <v>222</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>3232</v>
+      </c>
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" t="s">
+        <v>36</v>
+      </c>
+      <c r="F62" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>111</v>
+      </c>
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" t="s">
+        <v>37</v>
+      </c>
+      <c r="F63" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>222</v>
+      </c>
+      <c r="D64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s">
+        <v>37</v>
+      </c>
+      <c r="F64" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>3232</v>
+      </c>
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" t="s">
+        <v>37</v>
+      </c>
+      <c r="F65" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66">
+        <v>111</v>
+      </c>
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" t="s">
+        <v>38</v>
+      </c>
+      <c r="F66" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67">
+        <v>222</v>
+      </c>
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68">
+        <v>3232</v>
+      </c>
+      <c r="D68" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>1212</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" t="s">
+        <v>39</v>
+      </c>
+      <c r="F69" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70">
+        <v>222</v>
+      </c>
+      <c r="D70" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" t="s">
+        <v>39</v>
+      </c>
+      <c r="F70" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>33</v>
+      </c>
+      <c r="D71" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" t="s">
+        <v>39</v>
+      </c>
+      <c r="F71" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72">
+        <v>222</v>
+      </c>
+      <c r="D72" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" t="s">
+        <v>40</v>
+      </c>
+      <c r="F72" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73">
+        <v>222</v>
+      </c>
+      <c r="D73" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" t="s">
+        <v>40</v>
+      </c>
+      <c r="F73" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>33</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" t="s">
+        <v>40</v>
+      </c>
+      <c r="F74" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" t="s">
+        <v>40</v>
+      </c>
+      <c r="F75" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76">
+        <v>111</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" t="s">
+        <v>41</v>
+      </c>
+      <c r="F76" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77">
+        <v>9</v>
+      </c>
+      <c r="D77" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" t="s">
+        <v>42</v>
+      </c>
+      <c r="F77" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78">
+        <v>99</v>
+      </c>
+      <c r="D78" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" t="s">
+        <v>42</v>
+      </c>
+      <c r="F78" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79">
+        <v>999</v>
+      </c>
+      <c r="D79" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" t="s">
+        <v>42</v>
+      </c>
+      <c r="F79" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80">
+        <v>9999</v>
+      </c>
+      <c r="D80" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" t="s">
+        <v>42</v>
+      </c>
+      <c r="F80" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/banco_dasa.xlsx
+++ b/banco_dasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="45">
   <si>
     <t>Funcionario</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>11:16:01</t>
+  </si>
+  <si>
+    <t>11:24:43</t>
   </si>
   <si>
     <t>15/09/2025</t>
@@ -507,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2037,8 +2040,8 @@
       <c r="E77" t="s">
         <v>42</v>
       </c>
-      <c r="F77" t="s">
-        <v>43</v>
+      <c r="F77" s="2">
+        <v>45915</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2057,8 +2060,8 @@
       <c r="E78" t="s">
         <v>42</v>
       </c>
-      <c r="F78" t="s">
-        <v>43</v>
+      <c r="F78" s="2">
+        <v>45915</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2077,8 +2080,8 @@
       <c r="E79" t="s">
         <v>42</v>
       </c>
-      <c r="F79" t="s">
-        <v>43</v>
+      <c r="F79" s="2">
+        <v>45915</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2097,8 +2100,88 @@
       <c r="E80" t="s">
         <v>42</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>23</v>
+      </c>
+      <c r="D81" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" t="s">
         <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82">
+        <v>333</v>
+      </c>
+      <c r="D82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <v>44</v>
+      </c>
+      <c r="D83" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84">
+        <v>55</v>
+      </c>
+      <c r="D84" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/banco_dasa.xlsx
+++ b/banco_dasa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="48">
   <si>
     <t>Funcionario</t>
   </si>
@@ -64,6 +64,9 @@
     <t>Consultórios</t>
   </si>
   <si>
+    <t>Farmácia</t>
+  </si>
+  <si>
     <t>10:00:00</t>
   </si>
   <si>
@@ -146,6 +149,12 @@
   </si>
   <si>
     <t>11:24:43</t>
+  </si>
+  <si>
+    <t>11:30:08</t>
+  </si>
+  <si>
+    <t>11:31:33</t>
   </si>
   <si>
     <t>15/09/2025</t>
@@ -510,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -550,7 +559,7 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2">
         <v>45910</v>
@@ -570,7 +579,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2">
         <v>45911</v>
@@ -587,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2">
         <v>45912</v>
@@ -604,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2">
         <v>45913</v>
@@ -621,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2">
         <v>45915</v>
@@ -638,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2">
         <v>45915</v>
@@ -658,7 +667,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2">
         <v>45915</v>
@@ -678,7 +687,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2">
         <v>45915</v>
@@ -698,7 +707,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2">
         <v>45915</v>
@@ -718,7 +727,7 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" s="2">
         <v>45915</v>
@@ -738,7 +747,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2">
         <v>45915</v>
@@ -758,7 +767,7 @@
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2">
         <v>45915</v>
@@ -778,7 +787,7 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" s="2">
         <v>45915</v>
@@ -798,7 +807,7 @@
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F15" s="2">
         <v>45915</v>
@@ -818,7 +827,7 @@
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F16" s="2">
         <v>45915</v>
@@ -838,7 +847,7 @@
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F17" s="2">
         <v>45915</v>
@@ -858,7 +867,7 @@
         <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F18" s="2">
         <v>45915</v>
@@ -878,7 +887,7 @@
         <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F19" s="2">
         <v>45915</v>
@@ -898,7 +907,7 @@
         <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F20" s="2">
         <v>45915</v>
@@ -918,7 +927,7 @@
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F21" s="2">
         <v>45915</v>
@@ -938,7 +947,7 @@
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F22" s="2">
         <v>45915</v>
@@ -958,7 +967,7 @@
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F23" s="2">
         <v>45915</v>
@@ -978,7 +987,7 @@
         <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F24" s="2">
         <v>45915</v>
@@ -998,7 +1007,7 @@
         <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F25" s="2">
         <v>45915</v>
@@ -1018,7 +1027,7 @@
         <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F26" s="2">
         <v>45915</v>
@@ -1038,7 +1047,7 @@
         <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F27" s="2">
         <v>45915</v>
@@ -1058,7 +1067,7 @@
         <v>14</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F28" s="2">
         <v>45915</v>
@@ -1078,7 +1087,7 @@
         <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F29" s="2">
         <v>45915</v>
@@ -1098,7 +1107,7 @@
         <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F30" s="2">
         <v>45915</v>
@@ -1118,7 +1127,7 @@
         <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F31" s="2">
         <v>45915</v>
@@ -1138,7 +1147,7 @@
         <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F32" s="2">
         <v>45915</v>
@@ -1158,7 +1167,7 @@
         <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F33" s="2">
         <v>45915</v>
@@ -1178,7 +1187,7 @@
         <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F34" s="2">
         <v>45915</v>
@@ -1198,7 +1207,7 @@
         <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F35" s="2">
         <v>45915</v>
@@ -1218,7 +1227,7 @@
         <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F36" s="2">
         <v>45915</v>
@@ -1238,7 +1247,7 @@
         <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F37" s="2">
         <v>45915</v>
@@ -1258,7 +1267,7 @@
         <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F38" s="2">
         <v>45915</v>
@@ -1278,7 +1287,7 @@
         <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F39" s="2">
         <v>45915</v>
@@ -1298,7 +1307,7 @@
         <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F40" s="2">
         <v>45915</v>
@@ -1318,7 +1327,7 @@
         <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F41" s="2">
         <v>45915</v>
@@ -1338,7 +1347,7 @@
         <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F42" s="2">
         <v>45915</v>
@@ -1358,7 +1367,7 @@
         <v>14</v>
       </c>
       <c r="E43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F43" s="2">
         <v>45915</v>
@@ -1378,7 +1387,7 @@
         <v>14</v>
       </c>
       <c r="E44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F44" s="2">
         <v>45915</v>
@@ -1398,7 +1407,7 @@
         <v>14</v>
       </c>
       <c r="E45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F45" s="2">
         <v>45915</v>
@@ -1418,7 +1427,7 @@
         <v>14</v>
       </c>
       <c r="E46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F46" s="2">
         <v>45915</v>
@@ -1438,7 +1447,7 @@
         <v>14</v>
       </c>
       <c r="E47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F47" s="2">
         <v>45915</v>
@@ -1458,7 +1467,7 @@
         <v>14</v>
       </c>
       <c r="E48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F48" s="2">
         <v>45915</v>
@@ -1478,7 +1487,7 @@
         <v>14</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F49" s="2">
         <v>45915</v>
@@ -1498,7 +1507,7 @@
         <v>14</v>
       </c>
       <c r="E50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F50" s="2">
         <v>45915</v>
@@ -1518,7 +1527,7 @@
         <v>14</v>
       </c>
       <c r="E51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F51" s="2">
         <v>45915</v>
@@ -1538,7 +1547,7 @@
         <v>14</v>
       </c>
       <c r="E52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F52" s="2">
         <v>45915</v>
@@ -1558,7 +1567,7 @@
         <v>14</v>
       </c>
       <c r="E53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F53" s="2">
         <v>45915</v>
@@ -1578,7 +1587,7 @@
         <v>14</v>
       </c>
       <c r="E54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F54" s="2">
         <v>45915</v>
@@ -1598,7 +1607,7 @@
         <v>14</v>
       </c>
       <c r="E55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F55" s="2">
         <v>45915</v>
@@ -1618,7 +1627,7 @@
         <v>14</v>
       </c>
       <c r="E56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F56" s="2">
         <v>45915</v>
@@ -1638,7 +1647,7 @@
         <v>14</v>
       </c>
       <c r="E57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F57" s="2">
         <v>45915</v>
@@ -1658,7 +1667,7 @@
         <v>14</v>
       </c>
       <c r="E58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F58" s="2">
         <v>45915</v>
@@ -1678,7 +1687,7 @@
         <v>14</v>
       </c>
       <c r="E59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F59" s="2">
         <v>45915</v>
@@ -1698,7 +1707,7 @@
         <v>14</v>
       </c>
       <c r="E60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F60" s="2">
         <v>45915</v>
@@ -1718,7 +1727,7 @@
         <v>14</v>
       </c>
       <c r="E61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F61" s="2">
         <v>45915</v>
@@ -1738,7 +1747,7 @@
         <v>14</v>
       </c>
       <c r="E62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F62" s="2">
         <v>45915</v>
@@ -1758,7 +1767,7 @@
         <v>14</v>
       </c>
       <c r="E63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F63" s="2">
         <v>45915</v>
@@ -1778,7 +1787,7 @@
         <v>14</v>
       </c>
       <c r="E64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F64" s="2">
         <v>45915</v>
@@ -1798,7 +1807,7 @@
         <v>14</v>
       </c>
       <c r="E65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F65" s="2">
         <v>45915</v>
@@ -1818,7 +1827,7 @@
         <v>14</v>
       </c>
       <c r="E66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F66" s="2">
         <v>45915</v>
@@ -1838,7 +1847,7 @@
         <v>14</v>
       </c>
       <c r="E67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F67" s="2">
         <v>45915</v>
@@ -1858,7 +1867,7 @@
         <v>14</v>
       </c>
       <c r="E68" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F68" s="2">
         <v>45915</v>
@@ -1878,7 +1887,7 @@
         <v>13</v>
       </c>
       <c r="E69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F69" s="2">
         <v>45915</v>
@@ -1898,7 +1907,7 @@
         <v>13</v>
       </c>
       <c r="E70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F70" s="2">
         <v>45915</v>
@@ -1918,7 +1927,7 @@
         <v>13</v>
       </c>
       <c r="E71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F71" s="2">
         <v>45915</v>
@@ -1938,7 +1947,7 @@
         <v>13</v>
       </c>
       <c r="E72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F72" s="2">
         <v>45915</v>
@@ -1958,7 +1967,7 @@
         <v>13</v>
       </c>
       <c r="E73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F73" s="2">
         <v>45915</v>
@@ -1978,7 +1987,7 @@
         <v>13</v>
       </c>
       <c r="E74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F74" s="2">
         <v>45915</v>
@@ -1998,7 +2007,7 @@
         <v>13</v>
       </c>
       <c r="E75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F75" s="2">
         <v>45915</v>
@@ -2018,7 +2027,7 @@
         <v>13</v>
       </c>
       <c r="E76" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F76" s="2">
         <v>45915</v>
@@ -2038,7 +2047,7 @@
         <v>15</v>
       </c>
       <c r="E77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F77" s="2">
         <v>45915</v>
@@ -2058,7 +2067,7 @@
         <v>15</v>
       </c>
       <c r="E78" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F78" s="2">
         <v>45915</v>
@@ -2078,7 +2087,7 @@
         <v>15</v>
       </c>
       <c r="E79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F79" s="2">
         <v>45915</v>
@@ -2098,7 +2107,7 @@
         <v>15</v>
       </c>
       <c r="E80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F80" s="2">
         <v>45915</v>
@@ -2118,10 +2127,10 @@
         <v>15</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
-      </c>
-      <c r="F81" t="s">
         <v>44</v>
+      </c>
+      <c r="F81" s="2">
+        <v>45915</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2138,10 +2147,10 @@
         <v>15</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
-      </c>
-      <c r="F82" t="s">
         <v>44</v>
+      </c>
+      <c r="F82" s="2">
+        <v>45915</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2158,10 +2167,10 @@
         <v>15</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
-      </c>
-      <c r="F83" t="s">
         <v>44</v>
+      </c>
+      <c r="F83" s="2">
+        <v>45915</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2178,10 +2187,170 @@
         <v>15</v>
       </c>
       <c r="E84" t="s">
-        <v>43</v>
-      </c>
-      <c r="F84" t="s">
         <v>44</v>
+      </c>
+      <c r="F84" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85">
+        <v>23</v>
+      </c>
+      <c r="D85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85" t="s">
+        <v>45</v>
+      </c>
+      <c r="F85" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86">
+        <v>333</v>
+      </c>
+      <c r="D86" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F86" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87">
+        <v>44</v>
+      </c>
+      <c r="D87" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87" t="s">
+        <v>45</v>
+      </c>
+      <c r="F87" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88">
+        <v>55</v>
+      </c>
+      <c r="D88" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" t="s">
+        <v>45</v>
+      </c>
+      <c r="F88" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89">
+        <v>23</v>
+      </c>
+      <c r="D89" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" t="s">
+        <v>46</v>
+      </c>
+      <c r="F89" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90">
+        <v>333</v>
+      </c>
+      <c r="D90" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90" t="s">
+        <v>46</v>
+      </c>
+      <c r="F90" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>44</v>
+      </c>
+      <c r="D91" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91" t="s">
+        <v>46</v>
+      </c>
+      <c r="F91" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92">
+        <v>55</v>
+      </c>
+      <c r="D92" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" t="s">
+        <v>46</v>
+      </c>
+      <c r="F92" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/banco_dasa.xlsx
+++ b/banco_dasa.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labsfiap\Desktop\site-dasa\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62931FE5-DCFB-40FC-A11B-065B5E97D3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="51">
   <si>
     <t>Funcionario</t>
   </si>
@@ -61,18 +55,24 @@
     <t>enfermagem</t>
   </si>
   <si>
+    <t>UTI</t>
+  </si>
+  <si>
     <t>Enfermagem</t>
   </si>
   <si>
-    <t>UTI</t>
-  </si>
-  <si>
     <t>Consultórios</t>
   </si>
   <si>
     <t>Farmácia</t>
   </si>
   <si>
+    <t>Limpeza</t>
+  </si>
+  <si>
+    <t>Centro Cirúrgico</t>
+  </si>
+  <si>
     <t>10:00:00</t>
   </si>
   <si>
@@ -136,17 +136,47 @@
     <t>11:31:54</t>
   </si>
   <si>
-    <t>15/09/2025</t>
+    <t>08:59:19</t>
+  </si>
+  <si>
+    <t>09:18:19</t>
+  </si>
+  <si>
+    <t>09:18:42</t>
+  </si>
+  <si>
+    <t>09:21:35</t>
+  </si>
+  <si>
+    <t>09:22:14</t>
+  </si>
+  <si>
+    <t>09:26:59</t>
+  </si>
+  <si>
+    <t>09:35:29</t>
+  </si>
+  <si>
+    <t>09:35:54</t>
+  </si>
+  <si>
+    <t>09:37:56</t>
+  </si>
+  <si>
+    <t>09:38:16</t>
+  </si>
+  <si>
+    <t>19/09/2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,14 +240,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -264,7 +286,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,27 +318,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -348,24 +352,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -541,24 +527,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,7 +554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -592,13 +568,13 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2">
         <v>45910</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -609,16 +585,16 @@
         <v>200</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -629,16 +605,16 @@
         <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -649,16 +625,16 @@
         <v>200</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -669,16 +645,16 @@
         <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -689,16 +665,16 @@
         <v>300</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -709,16 +685,16 @@
         <v>300</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -729,16 +705,16 @@
         <v>300</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -749,16 +725,16 @@
         <v>300</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -769,16 +745,16 @@
         <v>300</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -789,16 +765,16 @@
         <v>300</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -809,16 +785,16 @@
         <v>300</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F13" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -829,16 +805,16 @@
         <v>450</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F14" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -849,16 +825,16 @@
         <v>450</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F15" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -869,16 +845,16 @@
         <v>450</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F16" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -889,16 +865,16 @@
         <v>450</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F17" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -909,16 +885,16 @@
         <v>450</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F18" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -929,16 +905,16 @@
         <v>450</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F19" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -949,16 +925,16 @@
         <v>125</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F20" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -969,16 +945,16 @@
         <v>125</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F21" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -989,16 +965,16 @@
         <v>125</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F22" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1009,16 +985,16 @@
         <v>125</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F23" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1029,16 +1005,16 @@
         <v>125</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F24" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1049,16 +1025,16 @@
         <v>125</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F25" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1069,16 +1045,16 @@
         <v>125</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F26" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1089,16 +1065,16 @@
         <v>133</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F27" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1109,16 +1085,16 @@
         <v>133</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F28" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1129,16 +1105,16 @@
         <v>133</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F29" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1149,16 +1125,16 @@
         <v>133</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F30" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1169,16 +1145,16 @@
         <v>133</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F31" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1189,16 +1165,16 @@
         <v>133</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F32" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1209,16 +1185,16 @@
         <v>133</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F33" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1229,16 +1205,16 @@
         <v>133</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F34" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1249,16 +1225,16 @@
         <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F35" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1269,16 +1245,16 @@
         <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F36" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1289,16 +1265,16 @@
         <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F37" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1312,13 +1288,13 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F38" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1332,13 +1308,13 @@
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F39" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -1352,13 +1328,13 @@
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F40" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1372,13 +1348,13 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F41" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -1392,13 +1368,13 @@
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F42" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -1412,13 +1388,13 @@
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F43" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1432,13 +1408,13 @@
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F44" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -1452,13 +1428,13 @@
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F45" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1472,13 +1448,13 @@
         <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F46" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1492,13 +1468,13 @@
         <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F47" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1512,13 +1488,13 @@
         <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F48" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1532,13 +1508,13 @@
         <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F49" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1552,13 +1528,13 @@
         <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F50" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1572,13 +1548,13 @@
         <v>16</v>
       </c>
       <c r="E51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F51" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1592,13 +1568,13 @@
         <v>16</v>
       </c>
       <c r="E52" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F52" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -1612,13 +1588,13 @@
         <v>16</v>
       </c>
       <c r="E53" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F53" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -1632,13 +1608,13 @@
         <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F54" s="2">
         <v>45915</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -1652,10 +1628,510 @@
         <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
-      </c>
-      <c r="F55" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="F55" s="2">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" t="s">
+        <v>42</v>
+      </c>
+      <c r="F62" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" t="s">
+        <v>42</v>
+      </c>
+      <c r="F63" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" t="s">
+        <v>45</v>
+      </c>
+      <c r="F69" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" t="s">
+        <v>45</v>
+      </c>
+      <c r="F70" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" t="s">
+        <v>46</v>
+      </c>
+      <c r="F71" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" t="s">
+        <v>47</v>
+      </c>
+      <c r="F72" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" t="s">
+        <v>47</v>
+      </c>
+      <c r="F73" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>5</v>
+      </c>
+      <c r="D74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" t="s">
+        <v>47</v>
+      </c>
+      <c r="F74" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" t="s">
+        <v>47</v>
+      </c>
+      <c r="F75" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" t="s">
+        <v>48</v>
+      </c>
+      <c r="F76" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" t="s">
+        <v>48</v>
+      </c>
+      <c r="F77" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" t="s">
+        <v>49</v>
+      </c>
+      <c r="F78" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" t="s">
+        <v>49</v>
+      </c>
+      <c r="F79" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" t="s">
+        <v>49</v>
+      </c>
+      <c r="F80" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/banco_dasa.xlsx
+++ b/banco_dasa.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labsfiap\Desktop\site-dasa\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818E8145-CBD0-4D35-8E83-4C7DC3FFB09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="53">
   <si>
     <t>Funcionario</t>
   </si>
@@ -164,6 +170,12 @@
   </si>
   <si>
     <t>09:38:16</t>
+  </si>
+  <si>
+    <t>10:29:19</t>
+  </si>
+  <si>
+    <t>10:29:56</t>
   </si>
   <si>
     <t>19/09/2025</t>
@@ -172,11 +184,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +252,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -286,7 +306,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,9 +338,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -352,6 +390,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -527,14 +583,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,7 +615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -574,7 +635,7 @@
         <v>45910</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -594,7 +655,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -614,7 +675,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -634,7 +695,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -654,7 +715,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -674,7 +735,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -694,7 +755,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -714,7 +775,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -734,7 +795,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -754,7 +815,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -774,7 +835,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -794,7 +855,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -814,7 +875,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -834,7 +895,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -854,7 +915,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -874,7 +935,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -894,7 +955,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -914,7 +975,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -934,7 +995,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -954,7 +1015,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -974,7 +1035,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -994,7 +1055,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1014,7 +1075,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1034,7 +1095,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1054,7 +1115,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1074,7 +1135,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1094,7 +1155,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1114,7 +1175,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1134,7 +1195,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1154,7 +1215,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1174,7 +1235,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1194,7 +1255,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1214,7 +1275,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1234,7 +1295,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1254,7 +1315,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1274,7 +1335,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1294,7 +1355,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1314,7 +1375,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -1334,7 +1395,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1354,7 +1415,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -1374,7 +1435,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -1394,7 +1455,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1414,7 +1475,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -1434,7 +1495,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1454,7 +1515,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1474,7 +1535,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1494,7 +1555,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1514,7 +1575,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1534,7 +1595,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1554,7 +1615,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1574,7 +1635,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -1594,7 +1655,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -1614,7 +1675,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -1634,7 +1695,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -1654,7 +1715,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -1674,15 +1735,15 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>1222</v>
       </c>
       <c r="D58" t="s">
         <v>14</v>
@@ -1694,15 +1755,15 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="s">
         <v>14</v>
@@ -1714,135 +1775,135 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C60">
+        <v>3300</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62">
         <v>3</v>
-      </c>
-      <c r="D60" t="s">
-        <v>17</v>
-      </c>
-      <c r="E60" t="s">
-        <v>41</v>
-      </c>
-      <c r="F60" s="2">
-        <v>45919</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61">
-        <v>3</v>
-      </c>
-      <c r="D61" t="s">
-        <v>17</v>
-      </c>
-      <c r="E61" t="s">
-        <v>41</v>
-      </c>
-      <c r="F61" s="2">
-        <v>45919</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62">
-        <v>4</v>
       </c>
       <c r="D62" t="s">
         <v>17</v>
       </c>
       <c r="E62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F62" s="2">
         <v>45919</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C63">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D63" t="s">
         <v>17</v>
       </c>
       <c r="E63" t="s">
+        <v>41</v>
+      </c>
+      <c r="F63" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" t="s">
         <v>42</v>
       </c>
-      <c r="F63" s="2">
-        <v>45919</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64">
+      <c r="F64" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65">
+        <v>7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" t="s">
+        <v>42</v>
+      </c>
+      <c r="F65" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66">
         <v>3</v>
-      </c>
-      <c r="D64" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64" t="s">
-        <v>43</v>
-      </c>
-      <c r="F64" s="2">
-        <v>45919</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65">
-        <v>3</v>
-      </c>
-      <c r="D65" t="s">
-        <v>16</v>
-      </c>
-      <c r="E65" t="s">
-        <v>43</v>
-      </c>
-      <c r="F65" s="2">
-        <v>45919</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66">
-        <v>4</v>
       </c>
       <c r="D66" t="s">
         <v>16</v>
@@ -1854,15 +1915,15 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="s">
         <v>16</v>
@@ -1874,135 +1935,135 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>7</v>
       </c>
       <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
         <v>11</v>
       </c>
-      <c r="C68">
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70">
         <v>1</v>
-      </c>
-      <c r="D68" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" t="s">
-        <v>44</v>
-      </c>
-      <c r="F68" s="2">
-        <v>45919</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69">
-        <v>2</v>
-      </c>
-      <c r="D69" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" t="s">
-        <v>45</v>
-      </c>
-      <c r="F69" s="2">
-        <v>45919</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70">
-        <v>3</v>
       </c>
       <c r="D70" t="s">
         <v>18</v>
       </c>
       <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" t="s">
         <v>45</v>
       </c>
-      <c r="F70" s="2">
-        <v>45919</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71">
-        <v>5</v>
-      </c>
-      <c r="D71" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" t="s">
-        <v>46</v>
-      </c>
       <c r="F71" s="2">
         <v>45919</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
       </c>
       <c r="E72" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F72" s="2">
         <v>45919</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F73" s="2">
         <v>45919</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="s">
         <v>18</v>
@@ -2014,15 +2075,15 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C75">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D75" t="s">
         <v>18</v>
@@ -2034,47 +2095,47 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="s">
         <v>18</v>
       </c>
       <c r="E76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F76" s="2">
         <v>45919</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D77" t="s">
         <v>18</v>
       </c>
       <c r="E77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F77" s="2">
         <v>45919</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -2082,7 +2143,7 @@
         <v>8</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>3333</v>
       </c>
       <c r="D78" t="s">
         <v>13</v>
@@ -2090,11 +2151,11 @@
       <c r="E78" t="s">
         <v>49</v>
       </c>
-      <c r="F78" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="F78" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -2102,7 +2163,7 @@
         <v>9</v>
       </c>
       <c r="C79">
-        <v>5</v>
+        <v>1400</v>
       </c>
       <c r="D79" t="s">
         <v>13</v>
@@ -2110,11 +2171,11 @@
       <c r="E79" t="s">
         <v>49</v>
       </c>
-      <c r="F79" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="F79" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -2122,7 +2183,7 @@
         <v>11</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>900</v>
       </c>
       <c r="D80" t="s">
         <v>13</v>
@@ -2130,8 +2191,268 @@
       <c r="E80" t="s">
         <v>49</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" t="s">
+        <v>48</v>
+      </c>
+      <c r="F81" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" t="s">
+        <v>48</v>
+      </c>
+      <c r="F82" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" t="s">
+        <v>49</v>
+      </c>
+      <c r="F83" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84">
+        <v>5</v>
+      </c>
+      <c r="D84" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" t="s">
+        <v>49</v>
+      </c>
+      <c r="F84" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" t="s">
+        <v>49</v>
+      </c>
+      <c r="F85" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86">
+        <v>100</v>
+      </c>
+      <c r="D86" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" t="s">
         <v>50</v>
+      </c>
+      <c r="F86" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87">
+        <v>222</v>
+      </c>
+      <c r="D87" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" t="s">
+        <v>50</v>
+      </c>
+      <c r="F87" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>322</v>
+      </c>
+      <c r="D88" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" t="s">
+        <v>50</v>
+      </c>
+      <c r="F88" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89">
+        <v>444</v>
+      </c>
+      <c r="D89" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" t="s">
+        <v>50</v>
+      </c>
+      <c r="F89" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90">
+        <v>1222</v>
+      </c>
+      <c r="D90" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" t="s">
+        <v>51</v>
+      </c>
+      <c r="F90" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91">
+        <v>333</v>
+      </c>
+      <c r="D91" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" t="s">
+        <v>51</v>
+      </c>
+      <c r="F91" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92">
+        <v>555</v>
+      </c>
+      <c r="D92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" t="s">
+        <v>51</v>
+      </c>
+      <c r="F92" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93">
+        <v>671</v>
+      </c>
+      <c r="D93" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" t="s">
+        <v>51</v>
+      </c>
+      <c r="F93" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/banco_dasa.xlsx
+++ b/banco_dasa.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labsfiap\Desktop\site-dasa\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818E8145-CBD0-4D35-8E83-4C7DC3FFB09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="54">
   <si>
     <t>Funcionario</t>
   </si>
@@ -166,29 +160,32 @@
     <t>09:35:54</t>
   </si>
   <si>
+    <t>09:38:16</t>
+  </si>
+  <si>
     <t>09:37:56</t>
   </si>
   <si>
-    <t>09:38:16</t>
-  </si>
-  <si>
     <t>10:29:19</t>
   </si>
   <si>
     <t>10:29:56</t>
   </si>
   <si>
-    <t>19/09/2025</t>
+    <t>14:29:24</t>
+  </si>
+  <si>
+    <t>20/09/2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,14 +249,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -306,7 +295,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -338,27 +327,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -390,24 +361,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -583,19 +536,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,7 +563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -635,7 +583,7 @@
         <v>45910</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -655,7 +603,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -675,7 +623,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -695,7 +643,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -715,7 +663,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -735,7 +683,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -755,7 +703,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -775,7 +723,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -795,7 +743,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -815,7 +763,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -835,7 +783,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -855,7 +803,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -875,7 +823,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -895,7 +843,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -915,7 +863,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -935,7 +883,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -955,7 +903,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -975,7 +923,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -995,7 +943,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1015,7 +963,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1035,7 +983,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1055,7 +1003,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1075,7 +1023,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1095,7 +1043,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1115,7 +1063,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1135,7 +1083,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1155,7 +1103,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1175,7 +1123,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1195,7 +1143,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1215,7 +1163,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1235,7 +1183,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1255,7 +1203,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1275,7 +1223,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1295,7 +1243,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1315,7 +1263,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1335,7 +1283,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1355,7 +1303,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1375,7 +1323,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -1395,7 +1343,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1415,7 +1363,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -1435,7 +1383,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -1455,7 +1403,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1475,7 +1423,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -1495,7 +1443,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1515,7 +1463,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1535,7 +1483,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1555,7 +1503,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1575,7 +1523,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1595,7 +1543,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1615,7 +1563,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1635,7 +1583,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -1655,7 +1603,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -1675,7 +1623,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -1695,7 +1643,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -1715,7 +1663,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -1735,7 +1683,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -1755,7 +1703,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -1775,7 +1723,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -1795,7 +1743,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -1815,7 +1763,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -1835,7 +1783,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -1855,7 +1803,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -1875,7 +1823,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -1895,7 +1843,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -1915,7 +1863,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -1935,7 +1883,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -1955,7 +1903,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -1975,7 +1923,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -1995,7 +1943,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -2015,7 +1963,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -2035,7 +1983,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -2055,7 +2003,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -2075,7 +2023,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -2095,7 +2043,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -2115,7 +2063,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -2135,7 +2083,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -2149,13 +2097,13 @@
         <v>13</v>
       </c>
       <c r="E78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F78" s="2">
         <v>45919</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -2169,13 +2117,13 @@
         <v>13</v>
       </c>
       <c r="E79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F79" s="2">
         <v>45919</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -2189,13 +2137,13 @@
         <v>13</v>
       </c>
       <c r="E80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F80" s="2">
         <v>45919</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -2209,13 +2157,13 @@
         <v>18</v>
       </c>
       <c r="E81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F81" s="2">
         <v>45919</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -2229,13 +2177,13 @@
         <v>18</v>
       </c>
       <c r="E82" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F82" s="2">
         <v>45919</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -2249,13 +2197,13 @@
         <v>13</v>
       </c>
       <c r="E83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F83" s="2">
         <v>45919</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -2269,13 +2217,13 @@
         <v>13</v>
       </c>
       <c r="E84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F84" s="2">
         <v>45919</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -2289,13 +2237,13 @@
         <v>13</v>
       </c>
       <c r="E85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F85" s="2">
         <v>45919</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -2315,7 +2263,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -2335,7 +2283,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -2355,7 +2303,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -2375,7 +2323,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -2391,11 +2339,11 @@
       <c r="E90" t="s">
         <v>51</v>
       </c>
-      <c r="F90" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F90" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -2411,11 +2359,11 @@
       <c r="E91" t="s">
         <v>51</v>
       </c>
-      <c r="F91" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F91" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -2431,11 +2379,11 @@
       <c r="E92" t="s">
         <v>51</v>
       </c>
-      <c r="F92" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F92" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -2451,8 +2399,68 @@
       <c r="E93" t="s">
         <v>51</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="2">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94">
+        <v>123</v>
+      </c>
+      <c r="D94" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" t="s">
         <v>52</v>
+      </c>
+      <c r="F94" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95">
+        <v>33</v>
+      </c>
+      <c r="D95" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" t="s">
+        <v>52</v>
+      </c>
+      <c r="F95" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" t="s">
+        <v>52</v>
+      </c>
+      <c r="F96" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
